--- a/inputdata/busstop_chinese.xlsx
+++ b/inputdata/busstop_chinese.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17472,8 +17472,8 @@
   <dimension ref="A1:E4801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4771" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4805" sqref="A4805"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
